--- a/02. Data definiëren/kubussen/brussel-invullen/kubusbrussel.xlsx
+++ b/02. Data definiëren/kubussen/brussel-invullen/kubusbrussel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\JiveDocumentation\02. Data definiëren\kubussen\brussel-invullen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\kubusbrussel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F7CA2-2406-4101-BE09-E2F9B03F9E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7FCC01-A9AE-4D17-9AC3-397C1FF1F8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{473308A0-0189-4EE8-8DE4-4EC503E9A588}"/>
+    <workbookView xWindow="9130" yWindow="9080" windowWidth="14400" windowHeight="5870" activeTab="2" xr2:uid="{473308A0-0189-4EE8-8DE4-4EC503E9A588}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIES" sheetId="4" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA675D10-00BD-48C6-8BC0-9A6ED0F7FEFE}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0AE317-EAAB-4C9F-A153-81490A2E445C}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>99991</v>
+        <v>99992</v>
       </c>
     </row>
   </sheetData>
